--- a/MVCProject/wwwroot/data/test.xlsx
+++ b/MVCProject/wwwroot/data/test.xlsx
@@ -12,9 +12,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>NV-0057</t>
+  </si>
+  <si>
+    <t>Hồ Văn</t>
+  </si>
+  <si>
+    <t>9871723713</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>Nhân Viên</t>
+  </si>
+  <si>
+    <t>NV-0067</t>
+  </si>
+  <si>
+    <t>Lê Văn Tí</t>
+  </si>
+  <si>
+    <t>0971586931</t>
+  </si>
+  <si>
+    <t>NV-0080</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuân</t>
+  </si>
+  <si>
+    <t>0987654332</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>NV-0086</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Phụng Anh</t>
+  </si>
+  <si>
+    <t>0980000095</t>
+  </si>
+  <si>
+    <t>NV-0088</t>
+  </si>
+  <si>
+    <t>Lê Lâm Vũ</t>
+  </si>
+  <si>
+    <t>0987675491</t>
+  </si>
+  <si>
+    <t>NV-0122</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Cừ</t>
+  </si>
+  <si>
+    <t>0383703111</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>NV-0130</t>
+  </si>
+  <si>
+    <t>Xê Thị Đê</t>
+  </si>
+  <si>
+    <t>0912398473</t>
+  </si>
+  <si>
+    <t>NV-0138</t>
+  </si>
+  <si>
+    <t>Trần Bình Phong</t>
+  </si>
+  <si>
+    <t>0912384713</t>
+  </si>
+  <si>
+    <t>NV-0141</t>
+  </si>
+  <si>
+    <t>Đỗ Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>Nhân VIên</t>
+  </si>
+  <si>
+    <t>NV-0143</t>
+  </si>
+  <si>
+    <t>Dương Thúy Hằng</t>
+  </si>
+  <si>
+    <t>0371239874</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>NV-0147</t>
+  </si>
+  <si>
+    <t>Chu Sương Nhi</t>
+  </si>
+  <si>
+    <t>0341238567</t>
+  </si>
+  <si>
+    <t>Nam Định</t>
+  </si>
+  <si>
+    <t>NV-0149</t>
+  </si>
+  <si>
+    <t>Vương Hải Long</t>
+  </si>
+  <si>
+    <t>0371274812</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>NV-0151</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Long</t>
+  </si>
+  <si>
+    <t>0912384752</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>NV-0160</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Bích Nụ</t>
+  </si>
+  <si>
+    <t>0984176541</t>
+  </si>
+  <si>
+    <t>47 Nguyễn Tuân Thanh Xuân Hà Nội</t>
+  </si>
+  <si>
+    <t>NV-0162</t>
+  </si>
+  <si>
+    <t>Dương Ngọc Ánh</t>
+  </si>
+  <si>
+    <t>0349876572</t>
+  </si>
+  <si>
+    <t>NV-0164</t>
+  </si>
+  <si>
+    <t>Bê Văn Xê</t>
+  </si>
+  <si>
+    <t>0349817365</t>
+  </si>
+  <si>
+    <t>NV-0167</t>
+  </si>
+  <si>
+    <t>Klara Jung</t>
+  </si>
+  <si>
+    <t>0345618271</t>
+  </si>
+  <si>
+    <t>NV-0169</t>
+  </si>
+  <si>
+    <t>Đoàn Duy Quý</t>
+  </si>
+  <si>
+    <t>501 Hà Huy Tập Thị Trấn Yên Viên Gia Lâm Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -60,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -70,6 +256,415 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0">
+        <v>33645</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0">
+        <v>36558</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
+        <v>36215</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0">
+        <v>36857</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0">
+        <v>36685</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0">
+        <v>35101</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0">
+        <v>32722</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0">
+        <v>34009</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0">
+        <v>36747</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0">
+        <v>36869</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="0">
+        <v>33855</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0">
+        <v>35862</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="0">
+        <v>36250</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="0">
+        <v>36379</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="0">
+        <v>36318</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="0">
+        <v>36557</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="0">
+        <v>36705</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="0">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <headerFooter/>
